--- a/Electrical/miniBCS-4_J005904.xlsx
+++ b/Electrical/miniBCS-4_J005904.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ID&amp;F\MiniBCS\ECAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawtelles\Documents\GitHub\miniBSC-4\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585A31B1-341A-4C8D-8966-09D674E30C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB4561C-47D6-43F8-9354-C591CB087DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="705" windowWidth="32655" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J005904_miniBCSrevG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">J005904_miniBCSrevG!$A$1:$J$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">J005904_miniBCSrevG!$A$1:$J$55</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="220">
   <si>
     <t>Qty</t>
   </si>
@@ -72,9 +72,6 @@
     <t>BNC-DUAL</t>
   </si>
   <si>
-    <t>J11</t>
-  </si>
-  <si>
     <t>J5 J6 J7 J8</t>
   </si>
   <si>
@@ -633,12 +630,6 @@
     <t>C16</t>
   </si>
   <si>
-    <t>R6 R7</t>
-  </si>
-  <si>
-    <t>R16 R20 R26 R27</t>
-  </si>
-  <si>
     <t>RP1 - RP23, RT1 -RT8</t>
   </si>
   <si>
@@ -664,6 +655,45 @@
   </si>
   <si>
     <t>A31727CT-ND</t>
+  </si>
+  <si>
+    <t>R16 R20</t>
+  </si>
+  <si>
+    <t>R2 R3 R6 R7  R26 R27</t>
+  </si>
+  <si>
+    <t>CONN HEADER R/A 10POS 2.54MM</t>
+  </si>
+  <si>
+    <t>SPI connector</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>30310-5002HB</t>
+  </si>
+  <si>
+    <t>3M15452-ND</t>
+  </si>
+  <si>
+    <t>J10</t>
+  </si>
+  <si>
+    <t>qwiic Connector</t>
+  </si>
+  <si>
+    <t>Surface Mount, Right Angle 4 pos 1.00mm</t>
+  </si>
+  <si>
+    <t>SM04B-SRSS-TB</t>
+  </si>
+  <si>
+    <t>JST Sales America Inc.</t>
+  </si>
+  <si>
+    <t>455-SM04B-SRSS-TBCT-ND</t>
   </si>
 </sst>
 </file>
@@ -1515,10 +1545,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,25 +1609,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
         <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
       </c>
       <c r="I4" s="3">
         <v>0.5</v>
@@ -1612,25 +1642,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
         <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
       </c>
       <c r="I5" s="3">
         <v>17.82</v>
@@ -1645,25 +1675,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
         <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s">
-        <v>65</v>
       </c>
       <c r="I6" s="3">
         <v>1.29</v>
@@ -1678,25 +1708,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
         <v>161</v>
-      </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>162</v>
       </c>
       <c r="I7" s="3">
         <v>1.17</v>
@@ -1714,22 +1744,22 @@
         <v>0.1</v>
       </c>
       <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
         <v>68</v>
-      </c>
-      <c r="G8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
       </c>
       <c r="I8" s="3">
         <v>0.03</v>
@@ -1747,19 +1777,19 @@
         <v>0.1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1770,22 +1800,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
         <v>71</v>
-      </c>
-      <c r="G10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
       </c>
       <c r="I10" s="3">
         <v>0.22</v>
@@ -1800,25 +1830,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
         <v>80</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" t="s">
-        <v>81</v>
       </c>
       <c r="I11" s="3">
         <v>0.05</v>
@@ -1828,40 +1858,40 @@
         <v>0.1</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
-      </c>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
       </c>
       <c r="I12" s="3">
         <v>0.05</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,25 +1899,25 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
       </c>
       <c r="I13" s="3">
         <v>0.06</v>
@@ -1898,35 +1928,35 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" t="s">
-        <v>90</v>
       </c>
       <c r="I14" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" ref="J14:J17" si="4">A14*I14</f>
-        <v>0.56000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1934,25 +1964,25 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
       </c>
       <c r="I15" s="3">
         <v>0.51</v>
@@ -1967,25 +1997,25 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
         <v>96</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>97</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
       </c>
       <c r="I16" s="3">
         <v>0.37</v>
@@ -2000,25 +2030,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>101</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>103</v>
       </c>
       <c r="I17" s="3">
         <v>0.38</v>
@@ -2036,22 +2066,22 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
       </c>
       <c r="I18" s="3">
         <v>0.45</v>
@@ -2069,16 +2099,16 @@
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2086,25 +2116,25 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
         <v>104</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
         <v>106</v>
-      </c>
-      <c r="G20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
       </c>
       <c r="I20" s="3">
         <v>0.05</v>
@@ -2119,25 +2149,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
         <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
       </c>
       <c r="I21" s="3">
         <v>0.13</v>
@@ -2147,7 +2177,7 @@
         <v>0.13</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2155,25 +2185,25 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>109</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s">
         <v>110</v>
-      </c>
-      <c r="G22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" t="s">
-        <v>111</v>
       </c>
       <c r="I22" s="3">
         <v>9.34</v>
@@ -2188,25 +2218,25 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
         <v>113</v>
-      </c>
-      <c r="G23" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" t="s">
-        <v>114</v>
       </c>
       <c r="I23" s="3">
         <v>6.7</v>
@@ -2221,25 +2251,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
         <v>116</v>
-      </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>117</v>
       </c>
       <c r="I24" s="3">
         <v>3.5</v>
@@ -2254,25 +2284,25 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>119</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
         <v>120</v>
-      </c>
-      <c r="G25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" t="s">
-        <v>121</v>
       </c>
       <c r="I25" s="3">
         <v>2.4700000000000002</v>
@@ -2287,25 +2317,25 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>123</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
         <v>124</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" t="s">
-        <v>125</v>
       </c>
       <c r="I26" s="3">
         <v>10.75</v>
@@ -2320,25 +2350,25 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>127</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
         <v>128</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" t="s">
-        <v>129</v>
       </c>
       <c r="I27" s="3">
         <v>14.74</v>
@@ -2353,25 +2383,25 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>131</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
         <v>132</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" t="s">
-        <v>133</v>
       </c>
       <c r="I28" s="3">
         <v>1.46</v>
@@ -2386,25 +2416,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>135</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>136</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" t="s">
         <v>137</v>
-      </c>
-      <c r="G29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" t="s">
-        <v>138</v>
       </c>
       <c r="I29" s="3">
         <v>4.6399999999999997</v>
@@ -2419,31 +2449,31 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I30" s="3">
         <v>0.87</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:J48" si="12">A30*I30</f>
+        <f t="shared" ref="J30:J50" si="12">A30*I30</f>
         <v>0.87</v>
       </c>
     </row>
@@ -2452,25 +2482,25 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>188</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
         <v>189</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" t="s">
-        <v>190</v>
       </c>
       <c r="I31" s="3">
         <v>0.43</v>
@@ -2491,25 +2521,25 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1">
         <v>1894804</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I33" s="3">
         <v>2.67</v>
@@ -2524,22 +2554,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34" s="1">
         <v>1881325</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I34" s="3">
         <v>3.1</v>
@@ -2557,25 +2587,25 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
         <v>149</v>
-      </c>
-      <c r="G36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" t="s">
-        <v>150</v>
       </c>
       <c r="I36" s="3">
         <v>2.85</v>
@@ -2597,25 +2627,25 @@
         <v>9</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="2">
         <v>112705</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I38" s="3">
         <v>7.62</v>
@@ -2630,25 +2660,25 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="1">
         <v>432024101</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39" s="3">
         <v>1.54</v>
@@ -2669,22 +2699,22 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" t="s">
         <v>169</v>
-      </c>
-      <c r="C41" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" t="s">
-        <v>170</v>
       </c>
       <c r="I41" s="3">
         <v>1.39</v>
@@ -2706,22 +2736,22 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
         <v>174</v>
       </c>
-      <c r="C43" t="s">
-        <v>175</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I43" s="3">
         <v>15</v>
@@ -2736,19 +2766,19 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="1">
         <v>4848</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I44" s="3">
         <v>1.05</v>
@@ -2763,19 +2793,19 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C45" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="H45" t="s">
         <v>178</v>
-      </c>
-      <c r="H45" t="s">
-        <v>179</v>
       </c>
       <c r="I45" s="3">
         <v>4.8899999999999997</v>
@@ -2786,9 +2816,30 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H46" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.01</v>
+      </c>
       <c r="J46" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2796,47 +2847,74 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>191</v>
+        <v>217</v>
+      </c>
+      <c r="H47" t="s">
+        <v>219</v>
       </c>
       <c r="I47" s="3">
-        <v>21.98</v>
+        <v>0.6</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I49" s="3">
         <v>21.98</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="J49" s="3">
+        <f t="shared" si="12"/>
+        <v>21.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="B50" t="s">
         <v>192</v>
       </c>
-      <c r="I48" s="3">
+      <c r="E50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I50" s="3">
         <v>1.35</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J50" s="3">
         <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J53" s="3">
-        <f>SUM(J4:J49)</f>
-        <v>280.08</v>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J55" s="3">
+        <f>SUM(J4:J51)</f>
+        <v>281.61</v>
       </c>
     </row>
   </sheetData>

--- a/Electrical/miniBCS-4_J005904.xlsx
+++ b/Electrical/miniBCS-4_J005904.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawtelles\Documents\GitHub\miniBSC-4\Electrical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB4561C-47D6-43F8-9354-C591CB087DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C57F6CF-8BA7-4C58-9A36-0193E1BE2BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="705" windowWidth="32655" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6780" yWindow="615" windowWidth="30225" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="J005904_miniBCSrevG" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">J005904_miniBCSrevG!$A$1:$J$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">J005904_miniBCSrevG!$A$1:$J$56</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="225">
   <si>
     <t>Qty</t>
   </si>
@@ -694,6 +694,21 @@
   </si>
   <si>
     <t>455-SM04B-SRSS-TBCT-ND</t>
+  </si>
+  <si>
+    <t>IC BUF NON-INVERT 5.5V SOT23-6</t>
+  </si>
+  <si>
+    <t>2ch buffers</t>
+  </si>
+  <si>
+    <t>SN74LVC2G17DBVR</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>296-SN74LVC2G17DBVRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -1246,9 +1261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1286,7 +1301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1392,7 +1407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1534,7 +1549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1545,10 +1560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2488,7 @@
         <v>0.87</v>
       </c>
       <c r="J30" s="3">
-        <f t="shared" ref="J30:J50" si="12">A30*I30</f>
+        <f t="shared" ref="J30:J51" si="12">A30*I30</f>
         <v>0.87</v>
       </c>
     </row>
@@ -2869,57 +2884,84 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>1</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I50" s="3">
         <v>21.98</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J50" s="3">
         <f t="shared" si="12"/>
         <v>21.98</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>2</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I51" s="3">
         <v>1.35</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J51" s="3">
         <f t="shared" si="12"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J55" s="3">
-        <f>SUM(J4:J51)</f>
-        <v>281.61</v>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J56" s="3">
+        <f>SUM(J4:J52)</f>
+        <v>282.41000000000003</v>
       </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="55" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>